--- a/2.xlsx
+++ b/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Количество бригад по нормативу</t>
+          <t>Общее количество станций (отделений) скорой медицинской помощи</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9302695775143989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -464,63 +464,63 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>% Число пациентов с ОКС с подъемом ST, получивших тромболитическую терапию при оказании скорой медицинской помощи вне медицинской организации</t>
+          <t>Количество бригад по нормативу</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8626314518526518</v>
+        <v>0.9996034892786227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Организована возможность передачи неотложной помощи в поликлинические подразделения</t>
+          <t>Фактическое количество бригад</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8479983040050879</v>
+        <v>0.9989727783626794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Число пациентов, эвакуированных по медицинским показаниям в первые сутки с момента поступления из медицинской организации, где отсутствует возможность оказания необходимой экстренной медицинской помощи, в медицинские организации 2го и 3го уровня*</t>
+          <t>Функциональная модель - % фельдшерских бригад динамика данных показателей за период 2016-2021гг</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.84731044339753</v>
+        <v>0.9908518315066676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Функциональная модель - врачебных бригад, из них % анестезиологических, динамика данных показателей за период 2016-2021гг</t>
+          <t>Среднее время доезда на ДТП</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8242422478722302</v>
+        <v>0.902601027958512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>% Число пациентов с ОКС и ОНМК, доставленных выездными бригадами СМП в первичные сосудистые отделения и региональные сосудистые центры</t>
+          <t>Общий объем финансирования из ФОМС</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7799441842561288</v>
+        <v>0.8662312055069765</v>
       </c>
     </row>
     <row r="8">
@@ -529,55 +529,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Число пациентов, эвакуированных по медицинским показаниям в первые сутки с момента поступления из медицинской организации, где отсутствует возможность оказания необходимой экстренной медицинской помощи, в медицинские организации 2го и 3го уровня </t>
+          <t xml:space="preserve">Количество станций (отделений) скорой медицинской помощи, оснащенных медицинскими информационными системами, обеспечивающими автоматизацию работы станций (отделений) скорой медицинской помощи </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7728310809657483</v>
+        <v>0.8342568762854508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Показатели дорожной карты по заработной плате, врачи</t>
+          <t>Общий объем финансирования из средств бюджета</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7708342508418322</v>
+        <v>0.8242427720009033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Количество станций (отделений) скорой медицинской помощи, оснащенных медицинскими информационными системами, обеспечивающими автоматизацию работы станций (отделений) скорой медицинской помощи </t>
+          <t>Число пациентов, эвакуированных по медицинским показаниям в первые сутки с момента поступления из медицинской организации, где отсутствует возможность оказания необходимой экстренной медицинской помощи, в медицинские организации 2го и 3го уровня*</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7438690461571602</v>
+        <v>0.8193715949244305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Показатели дорожной карты по заработной плате, водители</t>
+          <t>Показатели дорожной карты по заработной плате, средний медицинский персонал</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7325919251886305</v>
+        <v>0.7610051388845106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -585,59 +585,59 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7170015565829155</v>
+        <v>0.7570634365784581</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Среднее время доезда на неотложные вызовы</t>
+          <t>Показатели дорожной карты по заработной плате, врачи</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7155094375182396</v>
+        <v>0.7459158081127865</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Показатели дорожной карты по заработной плате, средний медицинский персонал</t>
+          <t>Показатели дорожной карты по заработной плате, водители</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6831018711054407</v>
+        <v>0.7109249008569808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Количество межрайонных центров 3 уровня</t>
+          <t>Организована возможность передачи неотложной помощи в поликлинические подразделения</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6561235282255836</v>
+        <v>0.7071067811865474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Укомплектованность медицинскими кадрами в динамике за период 2016-2021 гг, врачей %</t>
+          <t>Среднее время доезда на неотложные вызовы</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6541804357450541</v>
+        <v>0.3296181970407613</v>
       </c>
     </row>
     <row r="17">
@@ -646,232 +646,76 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Общий объем финансирования из средств бюджета</t>
+          <t>Среднее время доезда на экстренные вызовы</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6424644220465705</v>
+        <v>0.05882692109094934</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Число вызовов (обращений) для оказания медицинской помощи в неотложной форме, переданных из станций (отделений) СМП для исполнения в медицинские организации, оказывающие первичную медико-санитарную помощь (найти % от 100%)</t>
+          <t>Укомплектованность медицинскими кадрами в динамике за период 2016-2021 гг, врачей %</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6188308941389662</v>
+        <v>-0.6317089994683062</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Наличие в структуре СМП отделения НМП</t>
+          <t>Количество автомобилей сроком роком эксплуатации 5 лет</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.605142283350446</v>
+        <v>-0.8947464202734197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>% Число пострадавших вследствие ДТП, умерших в стационарах, где сформированы травмоцентры и где не сформированы травмоцентры</t>
+          <t>Укомплектованность медицинскими кадрами в динамике за период 2016-2021 гг, средний медицинский персонал %</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3848139578427376</v>
+        <v>-0.9279552541627706</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Наличие стационарного отделения СМП</t>
+          <t>Функциональная модель - %врачебных бригад динамика данных показателей за период 2016-2021гг</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2913971185543096</v>
+        <v>-0.9908518315066676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Среднее время доезда на экстренные вызовы</t>
+          <t>Функциональная модель - врачебных бригад, из них % психиатрических, динамика данных показателей за период 2016-2021гг</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2012015321748575</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Функциональная модель - % фельдшерских бригад динамика данных показателей за период 2016-2021гг</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1084726587430533</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Общий объем финансирования из ФОМС</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.09153100733279385</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Функциональная модель - врачебных бригад, из них % психиатрических, динамика данных показателей за период 2016-2021гг</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.05292037984288684</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Среднее время доезда на ДТП</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.03072632474666924</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Фактическое количество бригад</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.03775869530844501</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Функциональная модель - %врачебных бригад динамика данных показателей за период 2016-2021гг</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.04914573210981763</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Функциональная модель - врачебных бригад, из них % экстренных консультативных, динамика данных показателей за период 2016-2021гг</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.0750241621953327</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Общее количество станций (отделений) скорой медицинской помощи</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.1772393682360482</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Смерти в машине скорой помощи от общего количества вызовов, %</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.2255999747078059</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Количество автомобилей сроком роком эксплуатации 5 лет</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.2820249963744511</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Количество межрайонных центров 2 уровня</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.3847058929631247</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Укомплектованность медицинскими кадрами в динамике за период 2016-2021 гг, средний медицинский персонал %</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.5055389131601711</v>
+        <v>-0.9948988376783892</v>
       </c>
     </row>
   </sheetData>
